--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,6 +623,22 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-unit-exercise-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
+</t>
+  </si>
+  <si>
+    <t>modeExerciceOffre (SituationOperationnelle) : statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:name</t>
   </si>
   <si>
@@ -633,7 +649,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>civiliteExercice (ExerciceProfessionnel) : Civilité d’exercice du professionnel</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
@@ -954,6 +970,9 @@
 </t>
   </si>
   <si>
+    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:contracted.id</t>
   </si>
   <si>
@@ -1196,6 +1215,19 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
+</t>
+  </si>
+  <si>
+    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
+  </si>
+  <si>
     <t>PractitionerRole.extension:vitalAccepted</t>
   </si>
   <si>
@@ -1206,27 +1238,7 @@
 </t>
   </si>
   <si>
-    <t>PractitionerRole.extension:optionCAS</t>
-  </si>
-  <si>
-    <t>optionCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:ror-practitionerrole-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t>ror-practitionerrole-unit-exercise-mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
@@ -1252,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifiers that are specific to a role/location</t>
+    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
   </si>
   <si>
     <t>Business Identifiers that are specific to a role/location.</t>
@@ -1366,7 +1378,7 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t>Roles which this practitioner may perform</t>
+    <t>profession (ExerciceProfessionnel) : Profession exercée ou future profession de l'étudiant</t>
   </si>
   <si>
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
@@ -1424,6 +1436,9 @@
     <t>expertiseType</t>
   </si>
   <si>
+    <t>typeSavoirFaire (SavoirFaire) : Type de savoir-faire (qualifications/autres attributions)</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
@@ -1433,6 +1448,9 @@
     <t>specialty</t>
   </si>
   <si>
+    <t>specialite (SavoirFaire) : Spécialité ordinale</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
@@ -1442,6 +1460,9 @@
     <t>competence</t>
   </si>
   <si>
+    <t>competence (SavoirFaire) : Compétence acquise par le professionnel</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
@@ -1451,6 +1472,9 @@
     <t>exclusiveCompetence</t>
   </si>
   <si>
+    <t>competenceExclusive (SavoirFaire) : Compétence exclusive</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
@@ -1460,6 +1484,9 @@
     <t>specificOrientation</t>
   </si>
   <si>
+    <t>orientationParticuliere (SavoirFaire) : Orientation particulière</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
@@ -1469,6 +1496,9 @@
     <t>expertiseCapacity</t>
   </si>
   <si>
+    <t>capacite (SavoirFaire) : Capacité de médecine</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
@@ -1478,6 +1508,9 @@
     <t>qualificationPAC</t>
   </si>
   <si>
+    <t>qualificationPAC (SavoirFaire) : Qualification de praticien adjoint contractuel</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
@@ -1487,6 +1520,9 @@
     <t>nonQualifyingDESC</t>
   </si>
   <si>
+    <t>DESCNonQualifiant (SavoirFaire) : Diplôme d'études spécialisées complémentaires (DESC)</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
@@ -1496,6 +1532,9 @@
     <t>supplementaryExerciseRight</t>
   </si>
   <si>
+    <t>droitExerciceComplémentaire (SavoirFaire) : Droit d'exercice complémentaire du professionnel</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
@@ -1503,6 +1542,9 @@
   </si>
   <si>
     <t>specificCompetence</t>
+  </si>
+  <si>
+    <t>competenceSpecifique (SituationOperationnelle) : Capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
@@ -1556,7 +1598,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details that are specific to the role/location/service</t>
+    <t>telecommunication (SituationOperationnelle) : Adresse(s) de télécommunication du professionnel dans le cadre de l'offre décrite</t>
   </si>
   <si>
     <t>Contact details that are specific to the role/location/service.</t>
@@ -1587,6 +1629,22 @@
     <t>2</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -1597,6 +1655,9 @@
 </t>
   </si>
   <si>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
@@ -1610,20 +1671,10 @@
 </t>
   </si>
   <si>
+    <t>niveauConfidentialite (Telecommunication) : niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>PractitionerRole.telecom.system</t>
@@ -1660,7 +1711,7 @@
     <t>PractitionerRole.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -1752,7 +1803,7 @@
 </t>
   </si>
   <si>
-    <t>Times the Service Site is available</t>
+    <t>precisionHoraire (SituationOperationnelle) : planning d'activité du professionnel</t>
   </si>
   <si>
     <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
@@ -1768,6 +1819,22 @@
   </si>
   <si>
     <t>PractitionerRole.availableTime.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t>ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
+</t>
+  </si>
+  <si>
+    <t>typePlageHoraire (Horaire) : Apporte un contexte à la plage horaire définie par la suite</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
@@ -1780,20 +1847,10 @@
 </t>
   </si>
   <si>
+    <t>debutDateEffective + finDateEffective (Horaire)</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour décrire le planning d'activité d'un professionnel ou d'une offre.</t>
-  </si>
-  <si>
-    <t>PractitionerRole.availableTime.extension:ror-available-time-type-of-time</t>
-  </si>
-  <si>
-    <t>ror-available-time-type-of-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.extension:ror-available-time-number-days-of-week</t>
@@ -1806,6 +1863,9 @@
 </t>
   </si>
   <si>
+    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
   </si>
   <si>
@@ -1857,7 +1917,7 @@
 </t>
   </si>
   <si>
-    <t>Opening time of day (ignored if allDay = true)</t>
+    <t>heureDebut (Horaire) : Heure de début de la plage horaire</t>
   </si>
   <si>
     <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -1869,7 +1929,7 @@
     <t>PractitionerRole.availableTime.availableEndTime</t>
   </si>
   <si>
-    <t>Closing time of day (ignored if allDay = true)</t>
+    <t>heureFin (Horaire) : Heure de fin de la plage horaire</t>
   </si>
   <si>
     <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
@@ -4353,7 +4413,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -4443,7 +4503,7 @@
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -4457,9 +4517,11 @@
         <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4480,13 +4542,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4537,25 +4599,25 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4566,10 +4628,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4580,7 +4642,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4592,13 +4654,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4637,37 +4699,37 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4678,10 +4740,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4689,10 +4751,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4704,24 +4766,22 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>74</v>
@@ -4751,37 +4811,37 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4792,10 +4852,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,7 +4863,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -4818,16 +4878,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4835,7 +4895,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4865,38 +4925,40 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4904,14 +4966,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4932,16 +4992,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4979,19 +5039,17 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -5006,13 +5064,13 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -5020,12 +5078,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -5046,15 +5106,17 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -5103,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -5112,19 +5174,19 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -5132,21 +5194,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -5158,17 +5220,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -5205,37 +5265,37 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -5246,46 +5306,44 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -5309,52 +5367,52 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -5362,10 +5420,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5382,25 +5440,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -5425,13 +5483,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -5449,7 +5507,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5464,13 +5522,13 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5478,18 +5536,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -5507,15 +5565,17 @@
         <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5563,7 +5623,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5578,13 +5638,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5592,21 +5652,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5621,13 +5681,13 @@
         <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5677,13 +5737,13 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -5692,13 +5752,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5706,14 +5766,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5735,13 +5795,13 @@
         <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5791,7 +5851,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5806,13 +5866,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5820,10 +5880,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5849,13 +5909,13 @@
         <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5905,7 +5965,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5920,13 +5980,13 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5934,10 +5994,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5948,7 +6008,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5960,20 +6020,18 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -6021,28 +6079,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -6050,14 +6108,12 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6075,19 +6131,23 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -6135,28 +6195,28 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -6164,12 +6224,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>74</v>
       </c>
@@ -6190,13 +6252,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6247,25 +6309,25 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -6276,10 +6338,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6290,7 +6352,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -6302,13 +6364,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6347,37 +6409,37 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -6388,10 +6450,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6399,10 +6461,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6414,24 +6476,22 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>74</v>
@@ -6461,37 +6521,37 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -6502,10 +6562,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6513,7 +6573,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -6528,22 +6588,24 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -6561,41 +6623,43 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -6615,7 +6679,7 @@
         <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6638,13 +6702,13 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6671,31 +6735,29 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6704,16 +6766,16 @@
         <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6724,21 +6786,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6750,17 +6812,15 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6797,37 +6857,37 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6838,14 +6898,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6861,23 +6921,21 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6913,19 +6971,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6937,13 +6995,13 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6954,10 +7012,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6968,7 +7026,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6977,19 +7035,23 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -7037,25 +7099,25 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -7066,21 +7128,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -7092,17 +7154,15 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -7139,37 +7199,37 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -7180,21 +7240,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -7203,29 +7263,27 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>74</v>
@@ -7255,37 +7313,37 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -7296,10 +7354,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7322,18 +7380,20 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7342,7 +7402,7 @@
         <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>74</v>
@@ -7381,7 +7441,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7396,10 +7456,10 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -7410,10 +7470,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7436,20 +7496,18 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7497,7 +7555,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7512,10 +7570,10 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -7526,10 +7584,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7552,19 +7610,19 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7613,7 +7671,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7628,10 +7686,10 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7642,10 +7700,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7668,19 +7726,19 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7729,7 +7787,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7744,10 +7802,10 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7758,10 +7816,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7784,19 +7842,19 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7845,7 +7903,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7860,10 +7918,10 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7874,14 +7932,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7899,19 +7955,23 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7935,11 +7995,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7957,7 +8019,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>220</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7972,10 +8034,10 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7986,13 +8048,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -8014,13 +8076,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8047,13 +8109,11 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -8071,19 +8131,19 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -8100,13 +8160,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
@@ -8128,13 +8188,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>199</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8214,20 +8274,20 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>84</v>
@@ -8242,13 +8302,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>205</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8317,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -8328,10 +8388,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8357,16 +8417,16 @@
         <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8415,7 +8475,7 @@
         <v>113</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8444,10 +8504,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8470,17 +8530,17 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8529,7 +8589,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8544,24 +8604,24 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8584,70 +8644,70 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8662,24 +8722,24 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8702,19 +8762,19 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8763,7 +8823,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8775,27 +8835,27 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8818,16 +8878,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8877,7 +8937,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8889,13 +8949,13 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8906,10 +8966,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8932,16 +8992,16 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8991,7 +9051,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -9003,13 +9063,13 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -9020,10 +9080,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9046,19 +9106,19 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -9087,7 +9147,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -9105,7 +9165,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9120,13 +9180,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9134,10 +9194,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9160,16 +9220,16 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9198,16 +9258,16 @@
         <v>173</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
@@ -9217,7 +9277,7 @@
         <v>113</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9232,13 +9292,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -9246,13 +9306,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>74</v>
@@ -9274,16 +9334,16 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9313,7 +9373,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9331,7 +9391,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9346,13 +9406,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -9360,13 +9420,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
@@ -9388,16 +9448,16 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9427,7 +9487,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9445,7 +9505,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9460,13 +9520,13 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9474,13 +9534,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>74</v>
@@ -9502,16 +9562,16 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9541,7 +9601,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9559,7 +9619,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9574,13 +9634,13 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9588,13 +9648,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
@@ -9616,16 +9676,16 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9655,7 +9715,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9673,7 +9733,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9688,13 +9748,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9702,13 +9762,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
@@ -9730,16 +9790,16 @@
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9769,7 +9829,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9787,7 +9847,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9802,13 +9862,13 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9816,13 +9876,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
@@ -9844,16 +9904,16 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9883,7 +9943,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9901,7 +9961,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9916,13 +9976,13 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9930,13 +9990,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
@@ -9958,16 +10018,16 @@
         <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9997,7 +10057,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -10015,7 +10075,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10030,13 +10090,13 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10044,13 +10104,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -10072,16 +10132,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10111,7 +10171,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10129,7 +10189,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10144,13 +10204,13 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10158,13 +10218,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>74</v>
@@ -10186,16 +10246,16 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10225,7 +10285,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10243,7 +10303,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10258,13 +10318,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10272,13 +10332,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>74</v>
@@ -10300,16 +10360,16 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10339,7 +10399,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -10357,7 +10417,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10372,13 +10432,13 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -10386,10 +10446,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10412,16 +10472,16 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10471,7 +10531,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10483,27 +10543,27 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10526,16 +10586,16 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10585,7 +10645,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10597,13 +10657,13 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10614,10 +10674,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10640,17 +10700,17 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10699,7 +10759,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10711,16 +10771,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10728,10 +10788,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10840,10 +10900,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10851,7 +10911,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10952,20 +11012,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>84</v>
@@ -10980,13 +11040,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>193</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11066,20 +11126,20 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>84</v>
@@ -11094,13 +11154,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>193</v>
+        <v>531</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11180,13 +11240,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>74</v>
@@ -11208,13 +11268,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>193</v>
+        <v>536</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11294,10 +11354,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11323,13 +11383,13 @@
         <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11358,10 +11418,10 @@
         <v>161</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -11379,7 +11439,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11388,19 +11448,19 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11408,10 +11468,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11437,16 +11497,16 @@
         <v>100</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -11495,7 +11555,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11510,13 +11570,13 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11524,10 +11584,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11553,16 +11613,16 @@
         <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -11590,10 +11650,10 @@
         <v>161</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11611,7 +11671,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11626,13 +11686,13 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>
@@ -11640,10 +11700,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11666,16 +11726,16 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11725,7 +11785,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11754,10 +11814,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11780,16 +11840,16 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11839,7 +11899,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11851,16 +11911,16 @@
         <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>74</v>
@@ -11868,10 +11928,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11894,16 +11954,16 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11953,7 +12013,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11971,7 +12031,7 @@
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -11982,10 +12042,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12094,10 +12154,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12208,13 +12268,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>74</v>
@@ -12236,13 +12296,13 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>193</v>
+        <v>588</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12322,13 +12382,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>74</v>
@@ -12350,13 +12410,13 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>193</v>
+        <v>593</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12436,13 +12496,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>74</v>
@@ -12464,13 +12524,13 @@
         <v>74</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>193</v>
+        <v>598</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12550,14 +12610,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12579,16 +12639,16 @@
         <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>74</v>
@@ -12637,7 +12697,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12666,10 +12726,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12695,13 +12755,13 @@
         <v>169</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12730,10 +12790,10 @@
         <v>161</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
@@ -12751,7 +12811,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12769,7 +12829,7 @@
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12780,10 +12840,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12806,13 +12866,13 @@
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12863,7 +12923,7 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
@@ -12881,7 +12941,7 @@
         <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>74</v>
@@ -12892,10 +12952,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12918,16 +12978,16 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12977,7 +13037,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -12995,7 +13055,7 @@
         <v>74</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -13006,10 +13066,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13032,16 +13092,16 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13091,7 +13151,7 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
@@ -13109,7 +13169,7 @@
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -13120,10 +13180,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13146,13 +13206,13 @@
         <v>74</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13203,7 +13263,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -13221,7 +13281,7 @@
         <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>74</v>
@@ -13232,10 +13292,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13344,10 +13404,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13458,14 +13518,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13487,16 +13547,16 @@
         <v>107</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>110</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>74</v>
@@ -13545,7 +13605,7 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -13574,10 +13634,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13603,13 +13663,13 @@
         <v>100</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13659,7 +13719,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>84</v>
@@ -13688,10 +13748,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13714,16 +13774,16 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13773,7 +13833,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
@@ -13785,13 +13845,13 @@
         <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>74</v>
@@ -13802,10 +13862,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13831,13 +13891,13 @@
         <v>100</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13887,7 +13947,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -13905,7 +13965,7 @@
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>74</v>
@@ -13916,10 +13976,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13942,19 +14002,19 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>74</v>
@@ -14003,7 +14063,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -14015,13 +14075,13 @@
         <v>96</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>74</v>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,288 +1004,90 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:contracted.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R282-CNAMAmeliSecteurConventionnement/FHIR/TRE-R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].coding.userSelected</t>
+    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
+</t>
+  </si>
+  <si>
+    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted</t>
+  </si>
+  <si>
+    <t>vitalAccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
+</t>
+  </si>
+  <si>
+    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:optionCAS</t>
-  </si>
-  <si>
-    <t>optionCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
-</t>
-  </si>
-  <si>
-    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:vitalAccepted</t>
-  </si>
-  <si>
-    <t>vitalAccepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
-</t>
-  </si>
-  <si>
-    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
   </si>
   <si>
     <t>Whether this practitioner role record is in active use</t>
@@ -2296,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2306,7 +2108,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -6789,9 +6591,11 @@
         <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6812,13 +6616,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6845,13 +6649,11 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6869,7 +6671,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6878,16 +6680,16 @@
         <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6898,21 +6700,23 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6924,17 +6728,15 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6971,19 +6773,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -7012,12 +6814,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
@@ -7026,7 +6830,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -7035,23 +6839,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -7099,7 +6899,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -7111,13 +6911,13 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -7131,39 +6931,43 @@
         <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -7199,37 +7003,37 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -7240,21 +7044,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -7263,21 +7067,21 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7313,19 +7117,19 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7337,27 +7141,27 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7380,29 +7184,31 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>74</v>
@@ -7441,7 +7247,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7456,24 +7262,24 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7496,18 +7302,20 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7555,7 +7363,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7567,27 +7375,27 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7595,7 +7403,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -7610,20 +7418,18 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>169</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7671,7 +7477,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7683,13 +7489,13 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7700,10 +7506,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7726,20 +7532,18 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7787,7 +7591,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7799,13 +7603,13 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7816,10 +7620,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7827,7 +7631,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -7842,19 +7646,19 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7879,13 +7683,11 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7903,13 +7705,13 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>96</v>
@@ -7918,13 +7720,13 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7932,10 +7734,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7943,10 +7745,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7958,20 +7760,18 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7995,37 +7795,35 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>96</v>
@@ -8034,13 +7832,13 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -8048,20 +7846,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>84</v>
@@ -8073,18 +7871,20 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -8113,7 +7913,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -8131,13 +7931,13 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>96</v>
@@ -8146,13 +7946,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -8160,13 +7960,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
@@ -8185,18 +7985,20 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -8221,13 +8023,11 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -8245,7 +8045,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8257,16 +8057,16 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -8274,13 +8074,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>74</v>
@@ -8299,18 +8099,20 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -8335,13 +8137,11 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -8359,7 +8159,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8371,16 +8171,16 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -8388,46 +8188,46 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J54" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
       </c>
@@ -8451,31 +8251,29 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8487,16 +8285,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8504,12 +8302,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8530,18 +8330,18 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8565,13 +8365,11 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8589,7 +8387,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8604,26 +8402,28 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8644,53 +8444,47 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8707,13 +8501,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -8722,26 +8516,28 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8762,20 +8558,18 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8799,13 +8593,11 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8823,47 +8615,49 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>427</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8878,16 +8672,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8913,13 +8707,11 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8937,28 +8729,28 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8966,12 +8758,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8992,16 +8786,16 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9027,13 +8821,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -9051,28 +8843,28 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -9080,21 +8872,23 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -9109,17 +8903,15 @@
         <v>314</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
       </c>
@@ -9147,7 +8939,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -9165,7 +8957,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -9180,13 +8972,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9194,10 +8986,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9205,7 +8997,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -9220,16 +9012,16 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>451</v>
+        <v>366</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9255,29 +9047,31 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>453</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -9289,31 +9083,29 @@
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>74</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>74</v>
       </c>
@@ -9331,19 +9123,19 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>314</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>451</v>
+        <v>366</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9369,11 +9161,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -9391,7 +9185,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9403,16 +9197,16 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -9420,14 +9214,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9448,18 +9240,18 @@
         <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>314</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9483,11 +9275,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -9505,7 +9299,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9517,16 +9311,16 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>450</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9534,14 +9328,12 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9559,20 +9351,18 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>101</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -9597,11 +9387,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>469</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9619,28 +9411,28 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>103</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>456</v>
+        <v>104</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9648,23 +9440,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>456</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -9673,20 +9463,18 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9711,29 +9499,31 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>473</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9745,16 +9535,16 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9762,20 +9552,20 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>84</v>
@@ -9787,20 +9577,18 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>459</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9825,11 +9613,13 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9847,7 +9637,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9859,16 +9649,16 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9876,13 +9666,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>74</v>
@@ -9901,20 +9691,18 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9939,11 +9727,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>481</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9961,7 +9751,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9973,16 +9763,16 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9990,20 +9780,20 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -10015,20 +9805,18 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -10053,11 +9841,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>485</v>
+        <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -10075,7 +9865,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>114</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -10087,16 +9877,16 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10104,14 +9894,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
@@ -10132,16 +9920,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>451</v>
+        <v>281</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10169,9 +9957,11 @@
       <c r="X69" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -10189,28 +9979,28 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>478</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10218,20 +10008,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>84</v>
@@ -10246,18 +10034,20 @@
         <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10281,11 +10071,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>493</v>
+        <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -10303,13 +10095,13 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>96</v>
@@ -10318,13 +10110,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10332,14 +10124,12 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10348,30 +10138,32 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10397,7 +10189,9 @@
       <c r="X71" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="Z71" t="s" s="2">
         <v>497</v>
       </c>
@@ -10417,13 +10211,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -10432,13 +10226,13 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>456</v>
+        <v>246</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -10446,10 +10240,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10460,7 +10254,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -10472,16 +10266,16 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10531,39 +10325,39 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>503</v>
+        <v>74</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10571,7 +10365,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>84</v>
@@ -10583,19 +10377,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>506</v>
+        <v>295</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>432</v>
+        <v>298</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10645,28 +10439,28 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>433</v>
+        <v>301</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>509</v>
+        <v>98</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>510</v>
+        <v>303</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10697,7 +10491,7 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>512</v>
@@ -10708,10 +10502,10 @@
       <c r="M74" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>515</v>
       </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10771,16 +10565,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>519</v>
+        <v>74</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10788,10 +10582,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10900,18 +10694,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>522</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10929,12 +10723,14 @@
         <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -11001,7 +10797,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -11012,20 +10808,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>84</v>
@@ -11040,13 +10836,13 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11126,13 +10922,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>74</v>
@@ -11154,13 +10950,13 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11240,20 +11036,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>84</v>
@@ -11268,13 +11064,13 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11354,44 +11150,46 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>74</v>
       </c>
@@ -11415,13 +11213,13 @@
         <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>541</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>542</v>
+        <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -11439,28 +11237,28 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>544</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>545</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>546</v>
+        <v>98</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>547</v>
+        <v>74</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>74</v>
@@ -11468,10 +11266,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11479,10 +11277,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -11491,23 +11289,21 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
@@ -11531,13 +11327,13 @@
         <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>74</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>74</v>
+        <v>543</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>74</v>
@@ -11555,13 +11351,13 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>96</v>
@@ -11570,13 +11366,13 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>554</v>
+        <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>556</v>
+        <v>74</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>74</v>
@@ -11584,10 +11380,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11604,26 +11400,22 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11647,13 +11439,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>562</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>563</v>
+        <v>74</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11671,7 +11463,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11686,13 +11478,13 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>565</v>
+        <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>566</v>
+        <v>74</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>74</v>
@@ -11700,10 +11492,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11723,19 +11515,19 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11785,7 +11577,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11800,10 +11592,10 @@
         <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>74</v>
@@ -11814,10 +11606,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11837,19 +11629,19 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>295</v>
+        <v>548</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>298</v>
+        <v>551</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11899,7 +11691,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11911,16 +11703,16 @@
         <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>74</v>
@@ -11928,10 +11720,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11942,7 +11734,7 @@
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
@@ -11954,17 +11746,15 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -12013,7 +11803,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -12031,7 +11821,7 @@
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -12042,10 +11832,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12154,10 +11944,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12268,44 +12058,46 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>587</v>
+        <v>107</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>74</v>
       </c>
@@ -12353,7 +12145,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>114</v>
+        <v>538</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -12371,7 +12163,7 @@
         <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>74</v>
@@ -12382,20 +12174,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>84</v>
@@ -12410,15 +12200,17 @@
         <v>74</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>592</v>
+        <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -12467,25 +12259,25 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>114</v>
+        <v>561</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -12496,14 +12288,12 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12524,15 +12314,17 @@
         <v>74</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>597</v>
+        <v>295</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
@@ -12581,25 +12373,25 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>114</v>
+        <v>564</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>74</v>
+        <v>567</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>74</v>
@@ -12610,46 +12402,44 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>601</v>
+        <v>74</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
       </c>
@@ -12697,25 +12487,25 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>98</v>
+        <v>516</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>74</v>
@@ -12726,10 +12516,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12752,18 +12542,20 @@
         <v>74</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>169</v>
+        <v>572</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>74</v>
       </c>
@@ -12787,13 +12579,13 @@
         <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>609</v>
+        <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>74</v>
@@ -12811,7 +12603,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12823,1270 +12615,18 @@
         <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN103" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,35 +639,51 @@
     <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name}
+    <t>PractitionerRole.extension:ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t>ror-practitionerrole-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/RORPractitionerRoleName}
 </t>
   </si>
   <si>
-    <t>civiliteExercice (ExerciceProfessionnel) : Civilité d’exercice du professionnel</t>
+    <t>civiliteExercie + nomExercice + prenomExercice (ExerciceProfessionnel)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour définir l'identité d’exercice d’un professionnel</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:contracted</t>
+  </si>
+  <si>
+    <t>contracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
+</t>
+  </si>
+  <si>
+    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.id</t>
+    <t>PractitionerRole.extension:contracted.id</t>
   </si>
   <si>
     <t>PractitionerRole.extension.id</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.extension</t>
+    <t>PractitionerRole.extension:contracted.extension</t>
   </si>
   <si>
     <t>PractitionerRole.extension.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.url</t>
+    <t>PractitionerRole.extension:contracted.url</t>
   </si>
   <si>
     <t>PractitionerRole.extension.url</t>
@@ -682,29 +698,32 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-name</t>
+    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
   </si>
   <si>
     <t>Extension.url</t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.value[x]</t>
+    <t>PractitionerRole.extension:contracted.value[x]</t>
   </si>
   <si>
     <t>PractitionerRole.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://www.interopsante.org/fhir/structuredefinition/datatype/fr-human-name}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -717,415 +736,140 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName</t>
-  </si>
-  <si>
-    <t>valueHumanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
+    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:optionCAS</t>
+  </si>
+  <si>
+    <t>optionCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.text</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.family</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:vitalAccepted</t>
+  </si>
+  <si>
+    <t>vitalAccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.given</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.prefix</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.suffix</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:name.value[x]:valueHumanName.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension.value[x].period</t>
+    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted</t>
-  </si>
-  <si>
-    <t>contracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted}
-</t>
-  </si>
-  <si>
-    <t>secteurConventionnement (SituationOperationnelle) : Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.url</t>
-  </si>
-  <si>
-    <t>https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-contracted</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>JDV_J218-CNAMAmeliSecteurConventionnement-RASS dérivé de la TRE_ R282-CNAMAmeliSecteurConventionnement</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J130-CNAMAmeliSecteurConventionnement-RASS/FHIR/JDV-J130-CNAMAmeliSecteurConventionnement-RASS</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:contracted.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J218-CNAMAmeliSecteurConventionnement-ROR/FHIR/JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:optionCAS</t>
-  </si>
-  <si>
-    <t>optionCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-hasCAS}
-</t>
-  </si>
-  <si>
-    <t>optionContratAccèsAuxSoins (SituationOperationnelle) : L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:vitalAccepted</t>
-  </si>
-  <si>
-    <t>vitalAccepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-vitaleAccepted}
-</t>
-  </si>
-  <si>
-    <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>identifiantSituationOperationnelle (SituationOperationnelle) : Identifiant de la situation opérationnelle, unique et persistant au niveau national</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
     <t>PRD-8/9 / PRA-5.4</t>
   </si>
   <si>
@@ -1219,10 +963,6 @@
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
-  </si>
-  <si>
     <t>PRA-5</t>
   </si>
   <si>
@@ -1488,6 +1228,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -1564,6 +1307,9 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
     <t>./ContactPointPurpose</t>
   </si>
   <si>
@@ -1596,6 +1342,12 @@
   </si>
   <si>
     <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -2098,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4419,7 +4171,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4433,9 +4185,11 @@
         <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4456,13 +4210,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4513,25 +4267,25 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4542,10 +4296,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4556,7 +4310,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4568,13 +4322,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4613,37 +4367,37 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4654,10 +4408,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4665,10 +4419,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4680,24 +4434,22 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4727,37 +4479,37 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4768,10 +4520,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4779,7 +4531,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>84</v>
@@ -4794,16 +4546,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4811,7 +4563,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4841,38 +4593,40 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4880,14 +4634,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4908,17 +4660,15 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4943,31 +4693,29 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4982,13 +4730,13 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4999,9 +4747,11 @@
         <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -5022,13 +4772,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5055,13 +4805,11 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -5079,7 +4827,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -5088,16 +4836,16 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -5108,21 +4856,23 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5134,17 +4884,15 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -5181,19 +4929,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5222,12 +4970,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5242,26 +4992,22 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -5285,13 +5031,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -5309,28 +5055,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5338,45 +5084,45 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5413,37 +5159,37 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5454,18 +5200,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -5480,18 +5226,18 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5539,13 +5285,13 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -5554,35 +5300,35 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5594,22 +5340,26 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="R31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5653,13 +5403,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
@@ -5668,24 +5418,24 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5696,7 +5446,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5708,18 +5458,20 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5767,39 +5519,39 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5807,10 +5559,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5822,16 +5574,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5881,25 +5633,25 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5910,10 +5662,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5936,20 +5688,18 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5997,7 +5747,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -6009,16 +5759,16 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -6026,20 +5776,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -6051,19 +5799,23 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -6087,13 +5839,11 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -6111,7 +5861,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -6123,16 +5873,16 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -6140,10 +5890,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6151,10 +5901,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -6163,18 +5913,20 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -6199,52 +5951,50 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -6252,21 +6002,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6275,18 +6027,20 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6311,31 +6065,29 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6347,16 +6099,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6367,15 +6119,17 @@
         <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -6387,19 +6141,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6407,7 +6161,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -6425,13 +6179,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6449,28 +6201,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6478,12 +6230,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6501,18 +6255,20 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6539,9 +6295,7 @@
       <c r="X39" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
         <v>318</v>
       </c>
@@ -6549,23 +6303,25 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>96</v>
@@ -6574,13 +6330,13 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6591,7 +6347,7 @@
         <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>320</v>
@@ -6613,18 +6369,20 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6653,7 +6411,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6671,13 +6429,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -6686,13 +6444,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6700,13 +6458,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
@@ -6725,18 +6483,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6761,13 +6521,11 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6785,7 +6543,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6797,16 +6555,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6814,13 +6572,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6839,18 +6597,20 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6875,13 +6635,11 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6899,7 +6657,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6911,16 +6669,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6928,46 +6686,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6991,31 +6749,29 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -7027,16 +6783,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -7047,9 +6803,11 @@
         <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7070,18 +6828,18 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -7105,13 +6863,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -7129,7 +6885,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7144,26 +6900,28 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7184,26 +6942,22 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7223,13 +6977,11 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7247,13 +6999,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
@@ -7262,26 +7014,28 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7290,7 +7044,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -7302,20 +7056,18 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7339,13 +7091,11 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7363,39 +7113,39 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7403,10 +7153,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7418,16 +7168,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7477,39 +7227,39 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7517,7 +7267,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
@@ -7529,19 +7279,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7591,25 +7341,25 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7620,10 +7370,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7631,7 +7381,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -7646,19 +7396,17 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7683,11 +7431,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7705,7 +7455,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7717,16 +7467,16 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7734,10 +7484,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7745,11 +7495,11 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7757,20 +7507,18 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7795,50 +7543,52 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7846,23 +7596,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7871,20 +7619,18 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>193</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7909,29 +7655,31 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7943,16 +7691,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7960,20 +7708,20 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>84</v>
@@ -7985,20 +7733,18 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -8023,11 +7769,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -8045,7 +7793,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -8057,16 +7805,16 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>74</v>
@@ -8074,13 +7822,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>74</v>
@@ -8099,20 +7847,18 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -8137,11 +7883,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -8159,7 +7907,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8171,16 +7919,16 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -8188,20 +7936,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -8213,20 +7961,18 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8251,11 +7997,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -8273,7 +8021,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8285,16 +8033,16 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>74</v>
@@ -8302,14 +8050,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
@@ -8330,16 +8076,16 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8367,9 +8113,11 @@
       <c r="X55" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y55" s="2"/>
+      <c r="Y55" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8387,28 +8135,28 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>74</v>
@@ -8416,20 +8164,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8444,18 +8190,20 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8479,11 +8227,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8501,13 +8251,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -8516,13 +8266,13 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8530,14 +8280,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8552,24 +8300,26 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8595,9 +8345,11 @@
       <c r="X57" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y57" s="2"/>
+      <c r="Y57" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8615,13 +8367,13 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>96</v>
@@ -8630,13 +8382,13 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8644,14 +8396,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8672,16 +8422,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8707,35 +8457,37 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>96</v>
@@ -8744,13 +8496,13 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8761,11 +8513,9 @@
         <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8786,16 +8536,16 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8821,50 +8571,52 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8872,14 +8624,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8888,7 +8638,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8897,19 +8647,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8935,11 +8685,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8957,7 +8709,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8972,13 +8724,13 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8986,10 +8738,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9000,7 +8752,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -9009,20 +8761,18 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -9071,50 +8821,50 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>103</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>436</v>
+        <v>104</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -9126,16 +8876,16 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>109</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9173,19 +8923,19 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>114</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9197,13 +8947,13 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -9214,12 +8964,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9237,21 +8989,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>449</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
       </c>
@@ -9299,7 +9049,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>114</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9311,16 +9061,16 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>450</v>
+        <v>115</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>74</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -9328,12 +9078,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>74</v>
       </c>
@@ -9354,13 +9106,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9411,25 +9163,25 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9440,21 +9192,23 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -9466,13 +9220,13 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>193</v>
+        <v>451</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>194</v>
+        <v>452</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9511,16 +9265,16 @@
         <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>114</v>
@@ -9552,44 +9306,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9637,7 +9393,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9655,7 +9411,7 @@
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9666,14 +9422,12 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9682,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9694,15 +9448,17 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9727,13 +9483,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9751,7 +9507,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>114</v>
+        <v>458</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9763,13 +9519,13 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9780,20 +9536,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -9808,13 +9562,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>469</v>
+        <v>258</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9865,25 +9619,25 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>114</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9894,10 +9648,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9917,19 +9671,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>169</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>281</v>
+        <v>470</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9955,13 +9709,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9979,7 +9733,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9988,19 +9742,19 @@
         <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>478</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>479</v>
+        <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>481</v>
+        <v>74</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>74</v>
@@ -10008,10 +9762,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10019,7 +9773,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>84</v>
@@ -10031,23 +9785,21 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -10095,7 +9847,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -10110,13 +9862,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>488</v>
+        <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>74</v>
@@ -10124,10 +9876,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10138,32 +9890,28 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -10187,13 +9935,13 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -10211,13 +9959,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -10226,13 +9974,13 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>246</v>
+        <v>435</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>500</v>
+        <v>74</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -10240,10 +9988,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10263,20 +10011,18 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>101</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10325,7 +10071,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>506</v>
+        <v>103</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10334,13 +10080,13 @@
         <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>104</v>
@@ -10354,21 +10100,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10377,19 +10123,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>508</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>509</v>
+        <v>109</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10427,40 +10173,40 @@
         <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>510</v>
+        <v>114</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10468,44 +10214,46 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10553,7 +10301,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10565,13 +10313,13 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>516</v>
+        <v>98</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10582,10 +10330,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10593,7 +10341,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>84</v>
@@ -10611,12 +10359,14 @@
         <v>100</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>101</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
@@ -10665,19 +10415,19 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>103</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -10694,21 +10444,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10720,16 +10470,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>108</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>109</v>
+        <v>485</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10767,37 +10517,37 @@
         <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>114</v>
+        <v>483</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>98</v>
+        <v>435</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10808,14 +10558,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10836,15 +10584,17 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>100</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10893,25 +10643,25 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10922,14 +10672,12 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10938,7 +10686,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10950,16 +10698,20 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -11007,7 +10759,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>114</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -11019,1614 +10771,18 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>74</v>
+        <v>495</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN92" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,6 +614,9 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -771,6 +774,22 @@
     <t>carteVitaleAcceptee (SituationOperationnelle) : Précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas</t>
   </si>
   <si>
+    <t>PractitionerRole.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+  </si>
+  <si>
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
@@ -1166,9 +1185,6 @@
   </si>
   <si>
     <t>PractitionerRole.telecom.extension</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.extension:ror-telecom-communication-channel</t>
@@ -1850,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2713,7 +2729,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>84</v>
@@ -3853,7 +3869,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3871,10 +3887,10 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3925,7 +3941,7 @@
         <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3954,13 +3970,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -3982,13 +3998,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4039,7 +4055,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4068,13 +4084,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
@@ -4096,13 +4112,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4153,7 +4169,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4182,13 +4198,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
@@ -4210,13 +4226,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4267,7 +4283,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4296,10 +4312,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4408,10 +4424,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4437,10 +4453,10 @@
         <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4520,10 +4536,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4549,13 +4565,13 @@
         <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4563,7 +4579,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4605,7 +4621,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -4634,10 +4650,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4660,13 +4676,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4696,26 +4712,26 @@
         <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4744,13 +4760,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
@@ -4772,13 +4788,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4809,7 +4825,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4827,7 +4843,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4856,13 +4872,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
@@ -4884,13 +4900,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4941,7 +4957,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4970,13 +4986,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
@@ -4998,13 +5014,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5055,7 +5071,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5084,46 +5100,44 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5159,19 +5173,19 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5189,7 +5203,7 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5200,33 +5214,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>250</v>
@@ -5234,7 +5248,9 @@
       <c r="M30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>252</v>
       </c>
@@ -5273,19 +5289,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5297,27 +5313,27 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5340,26 +5356,22 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q31" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5403,13 +5415,13 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
@@ -5418,24 +5430,24 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5458,24 +5470,26 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="P32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5519,7 +5533,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5531,27 +5545,27 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5559,7 +5573,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>84</v>
@@ -5574,18 +5588,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5633,7 +5649,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5645,27 +5661,27 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5673,7 +5689,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>84</v>
@@ -5688,16 +5704,16 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5747,7 +5763,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5759,13 +5775,13 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5776,10 +5792,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5787,7 +5803,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5802,20 +5818,18 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5839,11 +5853,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5861,28 +5877,28 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5890,10 +5906,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5904,7 +5920,7 @@
         <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5916,18 +5932,20 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5951,29 +5969,29 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5988,13 +6006,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -6002,14 +6020,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6018,7 +6034,7 @@
         <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6030,16 +6046,16 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6065,29 +6081,29 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6102,13 +6118,13 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6116,20 +6132,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -6144,16 +6160,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6183,7 +6199,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -6201,7 +6217,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6216,13 +6232,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6230,13 +6246,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6258,16 +6274,16 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6297,7 +6313,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6315,7 +6331,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6330,13 +6346,13 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6344,13 +6360,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
@@ -6372,16 +6388,16 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6411,7 +6427,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6429,7 +6445,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6444,13 +6460,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6458,13 +6474,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
@@ -6486,16 +6502,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6525,7 +6541,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6543,7 +6559,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6558,13 +6574,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6572,13 +6588,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6600,16 +6616,16 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6639,7 +6655,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6657,7 +6673,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6672,13 +6688,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6686,13 +6702,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
@@ -6714,16 +6730,16 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6753,7 +6769,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6771,7 +6787,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6786,13 +6802,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6800,13 +6816,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
@@ -6828,16 +6844,16 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6867,7 +6883,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6885,7 +6901,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6900,13 +6916,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6914,13 +6930,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
@@ -6942,16 +6958,16 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6981,7 +6997,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6999,7 +7015,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7014,13 +7030,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7028,13 +7044,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
@@ -7044,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -7056,16 +7072,16 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7095,7 +7111,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7113,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7128,13 +7144,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7142,12 +7158,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
       </c>
@@ -7168,16 +7186,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7203,13 +7221,11 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7227,7 +7243,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7239,27 +7255,27 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7267,10 +7283,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7279,19 +7295,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7341,7 +7357,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7353,19 +7369,19 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -7381,7 +7397,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -7393,7 +7409,7 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>361</v>
@@ -7404,10 +7420,10 @@
       <c r="M49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N49" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7467,16 +7483,16 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>74</v>
@@ -7484,10 +7500,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7507,19 +7523,21 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7567,28 +7585,28 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7596,10 +7614,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7607,10 +7625,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7622,13 +7640,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7667,37 +7685,37 @@
         <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7708,23 +7726,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7736,13 +7752,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>195</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7781,16 +7797,16 @@
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>114</v>
@@ -7825,7 +7841,7 @@
         <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>378</v>
@@ -7835,7 +7851,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>84</v>
@@ -7939,7 +7955,7 @@
         <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>383</v>
@@ -7949,7 +7965,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -8053,15 +8069,17 @@
         <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -8073,20 +8091,18 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8111,13 +8127,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -8135,28 +8151,28 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>114</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>74</v>
@@ -8164,10 +8180,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8175,7 +8191,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8190,20 +8206,18 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8227,13 +8241,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>396</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8251,7 +8265,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8260,19 +8274,19 @@
         <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8280,10 +8294,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8291,7 +8305,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8300,25 +8314,25 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8343,13 +8357,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8367,7 +8381,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8382,13 +8396,13 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8396,10 +8410,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8416,24 +8430,26 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8457,13 +8473,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8481,7 +8497,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8496,13 +8512,13 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>104</v>
+        <v>421</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8510,10 +8526,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8536,7 +8552,7 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>268</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>425</v>
@@ -8545,7 +8561,7 @@
         <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>271</v>
+        <v>427</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8595,7 +8611,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8607,16 +8623,16 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>428</v>
+        <v>104</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8624,10 +8640,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8647,19 +8663,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>277</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8709,28 +8725,28 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8738,10 +8754,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8764,15 +8780,17 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8821,25 +8839,25 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8850,21 +8868,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8876,17 +8894,15 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8923,37 +8939,37 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8964,23 +8980,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8992,15 +9006,17 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9037,16 +9053,16 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>114</v>
@@ -9067,7 +9083,7 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9081,7 +9097,7 @@
         <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>444</v>
@@ -9195,7 +9211,7 @@
         <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>449</v>
@@ -9309,43 +9325,41 @@
         <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9393,7 +9407,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9411,7 +9425,7 @@
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9429,7 +9443,7 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9442,24 +9456,26 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9483,31 +9499,31 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9519,13 +9535,13 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>435</v>
+        <v>98</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9550,7 +9566,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9562,7 +9578,7 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>464</v>
@@ -9570,7 +9586,9 @@
       <c r="M68" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9595,13 +9613,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9625,7 +9643,7 @@
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>96</v>
@@ -9637,7 +9655,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9648,10 +9666,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9674,17 +9692,15 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>467</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N69" t="s" s="2">
         <v>470</v>
       </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9733,7 +9749,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9751,7 +9767,7 @@
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9788,16 +9804,16 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9865,7 +9881,7 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9876,10 +9892,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9890,7 +9906,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9902,15 +9918,17 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9959,13 +9977,13 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -9977,7 +9995,7 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9988,10 +10006,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10002,7 +10020,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -10014,13 +10032,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>101</v>
+        <v>480</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>102</v>
+        <v>481</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10071,25 +10089,25 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10100,21 +10118,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10126,17 +10144,15 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
@@ -10173,37 +10189,37 @@
         <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10214,14 +10230,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10234,26 +10250,24 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>108</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>109</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10289,19 +10303,19 @@
         <v>74</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10330,44 +10344,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10415,25 +10431,25 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -10444,10 +10460,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10455,7 +10471,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>84</v>
@@ -10470,16 +10486,16 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10529,10 +10545,10 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>84</v>
@@ -10541,13 +10557,13 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>435</v>
+        <v>104</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10558,10 +10574,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10584,16 +10600,16 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10643,7 +10659,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10655,13 +10671,13 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10672,10 +10688,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10686,7 +10702,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10698,20 +10714,18 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10759,30 +10773,146 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN78" t="s" s="2">
+      <c r="B79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -788,6 +788,22 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension:ror-meta-comment</t>
+  </si>
+  <si>
+    <t>ror-meta-comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-comment}
+</t>
+  </si>
+  <si>
+    <t>commentaire (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond au commentaire présent dans les métadonnées.</t>
   </si>
   <si>
     <t>PractitionerRole.modifierExtension</t>
@@ -1866,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5217,43 +5233,41 @@
         <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5289,19 +5303,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5319,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5337,36 +5351,38 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5403,19 +5419,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5427,27 +5443,27 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5470,26 +5486,22 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5533,13 +5545,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
@@ -5548,24 +5560,24 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5588,24 +5600,26 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5649,7 +5663,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5661,27 +5675,27 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5689,7 +5703,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>84</v>
@@ -5704,18 +5718,20 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5763,7 +5779,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5775,27 +5791,27 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5803,7 +5819,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5818,16 +5834,16 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5877,7 +5893,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5889,7 +5905,7 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5917,7 +5933,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>84</v>
@@ -5932,20 +5948,18 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5969,11 +5983,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5997,22 +6013,22 @@
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -6020,10 +6036,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6034,7 +6050,7 @@
         <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6049,15 +6065,17 @@
         <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6081,29 +6099,29 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6118,13 +6136,13 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6132,14 +6150,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6148,7 +6164,7 @@
         <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6163,13 +6179,13 @@
         <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6195,29 +6211,29 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6232,13 +6248,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6246,20 +6262,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
@@ -6277,13 +6293,13 @@
         <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6313,7 +6329,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6331,7 +6347,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6346,13 +6362,13 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6360,13 +6376,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
@@ -6391,13 +6407,13 @@
         <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6427,7 +6443,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6445,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6460,13 +6476,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6474,13 +6490,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
@@ -6505,13 +6521,13 @@
         <v>225</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6541,7 +6557,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6559,7 +6575,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6574,13 +6590,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6588,13 +6604,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>74</v>
@@ -6619,13 +6635,13 @@
         <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6655,7 +6671,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6673,7 +6689,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6688,13 +6704,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6702,13 +6718,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>74</v>
@@ -6733,13 +6749,13 @@
         <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6769,7 +6785,7 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6787,7 +6803,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6802,13 +6818,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6816,13 +6832,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
@@ -6847,13 +6863,13 @@
         <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6883,7 +6899,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6901,7 +6917,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6916,13 +6932,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6930,13 +6946,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
@@ -6961,13 +6977,13 @@
         <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6997,7 +7013,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -7015,7 +7031,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7030,13 +7046,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -7044,13 +7060,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>74</v>
@@ -7075,13 +7091,13 @@
         <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7111,7 +7127,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7144,13 +7160,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -7158,13 +7174,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>74</v>
@@ -7174,7 +7190,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7189,13 +7205,13 @@
         <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7225,7 +7241,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -7243,7 +7259,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7258,13 +7274,13 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -7272,12 +7288,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7298,16 +7316,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7333,13 +7351,11 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7357,7 +7373,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7369,27 +7385,27 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7397,10 +7413,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7409,19 +7425,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7471,7 +7487,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7483,27 +7499,27 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7511,7 +7527,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -7523,21 +7539,21 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="N50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7585,7 +7601,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7597,16 +7613,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7614,10 +7630,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7637,19 +7653,21 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7697,28 +7715,28 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7726,10 +7744,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7737,10 +7755,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7752,13 +7770,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7797,37 +7815,37 @@
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7838,23 +7856,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7866,13 +7882,13 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7911,16 +7927,16 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>114</v>
@@ -7955,7 +7971,7 @@
         <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>383</v>
@@ -7965,7 +7981,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -8069,7 +8085,7 @@
         <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>388</v>
@@ -8079,7 +8095,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -8183,15 +8199,17 @@
         <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8203,20 +8221,18 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8241,13 +8257,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8265,28 +8281,28 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>399</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8294,10 +8310,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8305,7 +8321,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -8320,20 +8336,18 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8357,13 +8371,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8381,7 +8395,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8390,19 +8404,19 @@
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>404</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8410,10 +8424,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8421,7 +8435,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>84</v>
@@ -8430,25 +8444,25 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8473,13 +8487,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>418</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8497,7 +8511,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8526,13 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8526,10 +8540,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8546,24 +8560,26 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8587,13 +8603,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -8611,7 +8627,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8626,13 +8642,13 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8640,10 +8656,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8666,7 +8682,7 @@
         <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>430</v>
@@ -8675,7 +8691,7 @@
         <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>277</v>
+        <v>432</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8725,7 +8741,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8737,16 +8753,16 @@
         <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>104</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8754,10 +8770,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8777,19 +8793,19 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8839,28 +8855,28 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8868,10 +8884,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8894,15 +8910,17 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>101</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8951,25 +8969,25 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>104</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8980,21 +8998,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -9006,17 +9024,15 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
@@ -9053,37 +9069,37 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9094,23 +9110,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -9122,15 +9136,17 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -9167,16 +9183,16 @@
         <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>114</v>
@@ -9197,7 +9213,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9211,7 +9227,7 @@
         <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>449</v>
@@ -9325,7 +9341,7 @@
         <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>454</v>
@@ -9439,43 +9455,41 @@
         <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9523,7 +9537,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9541,7 +9555,7 @@
         <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9559,7 +9573,7 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9572,24 +9586,26 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9613,31 +9629,31 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>466</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9649,13 +9665,13 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9680,7 +9696,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9692,7 +9708,7 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>469</v>
@@ -9700,7 +9716,9 @@
       <c r="M69" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9725,13 +9743,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9755,7 +9773,7 @@
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>96</v>
@@ -9767,7 +9785,7 @@
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9778,10 +9796,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9804,17 +9822,15 @@
         <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>472</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N70" t="s" s="2">
         <v>475</v>
       </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>74</v>
@@ -9863,7 +9879,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9881,7 +9897,7 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9918,16 +9934,16 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9995,7 +10011,7 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -10006,10 +10022,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10020,7 +10036,7 @@
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -10032,15 +10048,17 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -10089,13 +10107,13 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -10107,7 +10125,7 @@
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>74</v>
@@ -10118,10 +10136,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10132,7 +10150,7 @@
         <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>74</v>
@@ -10144,13 +10162,13 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>102</v>
+        <v>486</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10201,25 +10219,25 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>104</v>
+        <v>445</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>74</v>
@@ -10230,21 +10248,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10256,17 +10274,15 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -10303,37 +10319,37 @@
         <v>74</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -10344,14 +10360,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10364,26 +10380,24 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>461</v>
+        <v>109</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O75" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10419,19 +10433,19 @@
         <v>74</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>462</v>
+        <v>114</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10460,44 +10474,46 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10545,25 +10561,25 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10574,10 +10590,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10585,7 +10601,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>84</v>
@@ -10600,16 +10616,16 @@
         <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10659,10 +10675,10 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>84</v>
@@ -10671,13 +10687,13 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>491</v>
+        <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>74</v>
@@ -10688,10 +10704,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10714,16 +10730,16 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>395</v>
+        <v>282</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10773,7 +10789,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10785,13 +10801,13 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>74</v>
@@ -10802,10 +10818,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10816,7 +10832,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10828,20 +10844,18 @@
         <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10889,30 +10903,146 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN79" t="s" s="2">
+      <c r="B80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
     <t>ror-practitionerrole-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/RORPractitionerRoleName}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerRoleName}
 </t>
   </si>
   <si>
@@ -780,14 +780,14 @@
     <t>ror-meta-creation-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
 </t>
   </si>
   <si>
     <t>dateCreation (Metadonnee)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>PractitionerRole.extension:ror-meta-comment</t>
@@ -796,7 +796,7 @@
     <t>ror-meta-comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-comment}
 </t>
   </si>
   <si>
@@ -1209,7 +1209,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1225,7 +1225,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1413,7 +1413,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -1429,7 +1429,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1445,7 +1445,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1901,7 +1901,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitionerrole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
